--- a/xlsx/美国法律_intext.xlsx
+++ b/xlsx/美国法律_intext.xlsx
@@ -15,1275 +15,1281 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="425">
   <si>
     <t>美国法律</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%B3%95%E5%BE%8B</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95</t>
+  </si>
+  <si>
+    <t>美国宪法</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_美国法律</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国最高法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8B%AC%E7%AB%8B%E6%88%98%E4%BA%89</t>
+  </si>
+  <si>
+    <t>美国独立战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>英国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%80%9A%E6%B3%95</t>
+  </si>
+  <si>
+    <t>普通法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%80%E9%AB%98%E6%9D%83%E5%8A%9B%E6%9D%A1%E6%AC%BE</t>
+  </si>
+  <si>
+    <t>最高权力条款</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B</t>
+  </si>
+  <si>
+    <t>法律</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E5%88%B6</t>
+  </si>
+  <si>
+    <t>联邦制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%9E_(%E7%BE%8E%E5%9B%BD)</t>
+  </si>
+  <si>
+    <t>州 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E6%B3%95</t>
+  </si>
+  <si>
+    <t>行政法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%88%90%E6%96%87%E6%B3%95</t>
+  </si>
+  <si>
+    <t>成文法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A1%88%E4%BE%8B%E6%B3%95</t>
+  </si>
+  <si>
+    <t>案例法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%81%95%E6%86%B2</t>
+  </si>
+  <si>
+    <t>违宪</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%81%B5%E5%BE%AA%E5%85%88%E4%BE%8B%E5%8E%9F%E5%88%99</t>
+  </si>
+  <si>
+    <t>遵循先例原则</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%81%94%E9%82%A6%E5%9B%BD%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>英联邦国家</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%81%B5%E5%BE%AA%E5%85%88%E4%BE%8B</t>
+  </si>
+  <si>
+    <t>遵循先例</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E5%AE%81%E5%8B%8B%E7%88%B5</t>
+  </si>
+  <si>
+    <t>丹宁勋爵</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2%E5%A4%A7%E6%B3%95%E5%AE%98</t>
+  </si>
+  <si>
+    <t>美国最高法院大法官</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E4%B8%9C%E5%AE%81%C2%B7%E6%96%AF%E5%8D%A1%E5%88%A9%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>安东宁·斯卡利亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%A1%E7%BA%A6</t>
+  </si>
+  <si>
+    <t>条约</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%9D%B1%E5%B0%BC%C2%B7%E7%94%98%E8%BF%BA%E8%BF%AA</t>
+  </si>
+  <si>
+    <t>安东尼·甘迺迪</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E8%92%82%E8%8A%AC%C2%B7%E5%B8%83%E9%9B%B7%E8%80%B6</t>
+  </si>
+  <si>
+    <t>史蒂芬·布雷耶</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B4%B8%E6%98%93</t>
+  </si>
+  <si>
+    <t>贸易</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B3%95%E5%85%B8</t>
+  </si>
+  <si>
+    <t>美国法典</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E6%A9%9F%E9%97%9C</t>
+  </si>
+  <si>
+    <t>行政机关</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E6%B3%95%E8%A7%84</t>
+  </si>
+  <si>
+    <t>行政法规</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%85%AC%E5%A0%B1</t>
+  </si>
+  <si>
+    <t>联邦公报</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>加利福尼亚州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%91%E6%B3%95</t>
+  </si>
+  <si>
+    <t>刑法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%9D%83</t>
+  </si>
+  <si>
+    <t>主权</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E5%AE%AA%E6%B3%95</t>
+  </si>
+  <si>
+    <t>州宪法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%E5%AE%89%E9%82%A3%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>路易斯安那州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>法国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%BF%E7%A0%B4%E4%BB%91%E6%B3%95%E5%85%B8</t>
+  </si>
+  <si>
+    <t>拿破仑法典</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%85%B8</t>
+  </si>
+  <si>
+    <t>法典</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%99%86%E6%B3%95%E7%B3%BB</t>
+  </si>
+  <si>
+    <t>大陆法系</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>纽约州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>加利福尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%90%A8%E6%96%AF</t>
+  </si>
+  <si>
+    <t>德克萨斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%A9%9F%E9%97%9C</t>
+  </si>
+  <si>
+    <t>立法机关</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>英国最高法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E9%99%A2</t>
+  </si>
+  <si>
+    <t>上院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%85%92%E5%90%8E%E9%A9%BE%E9%A9%B6</t>
+  </si>
+  <si>
+    <t>酒后驾驶</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%92%E5%93%81</t>
+  </si>
+  <si>
+    <t>毒品</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B3%95%E5%BE%8B%E5%8D%8F%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>美国法律协会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B5%B1%E4%B8%80%E5%95%86%E6%B3%95%E5%85%B8</t>
+  </si>
+  <si>
+    <t>统一商法典</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E9%87%8D%E8%BF%B0</t>
+  </si>
+  <si>
+    <t>法律重述</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%83%A8%E9%96%80</t>
+  </si>
+  <si>
+    <t>政府部门</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8E%BF</t>
+  </si>
+  <si>
+    <t>县</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E5%B8%82</t>
+  </si>
+  <si>
+    <t>城市</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>特区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A4%9A%E9%BB%8E%E5%90%84</t>
+  </si>
+  <si>
+    <t>波多黎各</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%99%B8%E6%B3%95</t>
+  </si>
+  <si>
+    <t>大陆法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B2%E5%A9%9A</t>
+  </si>
+  <si>
+    <t>已婚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A</t>
+  </si>
+  <si>
+    <t>科罗拉多</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
+  </si>
+  <si>
+    <t>新墨西哥</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%80%80%E4%BF%84%E6%98%8E</t>
+  </si>
+  <si>
+    <t>怀俄明</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E9%A2%86%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>密歇根领地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E6%96%87%E5%BA%93</t>
+  </si>
+  <si>
+    <t>维基文库</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%B3%95%E7%B3%BB</t>
+  </si>
+  <si>
+    <t>世界法系</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2%E6%A1%88%E4%BE%8B%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国最高法院案例列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9B%BD%E7%B4%A2%E5%BC%95</t>
+  </si>
+  <si>
+    <t>Template talk-美国索引</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%86%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>美国历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%86%E5%8F%B2%E5%B9%B4%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国历史年表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E5%93%A5%E5%80%AB%E5%B8%83%E6%99%82%E6%9C%9F</t>
+  </si>
+  <si>
+    <t>前哥伦布时期</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%89%E6%AE%96%E6%B0%91%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>十三殖民地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8B%AC%E7%AB%8B%E5%AE%A3%E8%A8%80</t>
+  </si>
+  <si>
+    <t>美国独立宣言</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%9D%A9%E5%91%BD</t>
+  </si>
+  <si>
+    <t>美国革命</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A0%98%E5%9C%9F%E8%AE%8A%E9%81%B7</t>
+  </si>
+  <si>
+    <t>美国领土变迁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E6%88%98</t>
+  </si>
+  <si>
+    <t>美国内战</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%87%8D%E5%BB%BA%E6%97%B6%E6%9C%9F</t>
+  </si>
+  <si>
+    <t>美国重建时期</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%90%A7%E6%9D%A1</t>
+  </si>
+  <si>
+    <t>大萧条</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%98</t>
+  </si>
+  <si>
+    <t>冷战</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E6%88%98%E4%BA%89</t>
+  </si>
+  <si>
+    <t>朝鲜战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%A3%94%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%B0%91%E6%9D%83%E8%BF%90%E5%8A%A8</t>
+  </si>
+  <si>
+    <t>非裔美国人民权运动</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E6%88%98%E4%BA%89</t>
+  </si>
+  <si>
+    <t>越南战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E7%81%A3%E6%88%B0%E7%88%AD</t>
+  </si>
+  <si>
+    <t>波斯湾战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%81%90%E6%88%98%E4%BA%89</t>
+  </si>
+  <si>
+    <t>反恐战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%B5%B7%E5%98%AF</t>
+  </si>
+  <si>
+    <t>金融海啸</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%8F%A3</t>
+  </si>
+  <si>
+    <t>美国人口</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%BB%8F%E6%B5%8E</t>
+  </si>
+  <si>
+    <t>美国经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%80%BA%E5%8A%A1%E4%B8%8A%E9%99%90%E5%8E%86%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>美国债务上限历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%9B%E4%BA%8B</t>
+  </si>
+  <si>
+    <t>美国军事</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%83%B5%E6%94%BF%E7%BD%B2</t>
+  </si>
+  <si>
+    <t>美国邮政署</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%91%E5%AD%A6%E6%8A%80%E6%9C%AF</t>
+  </si>
+  <si>
+    <t>美国科学技术</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%94%BF%E5%BA%9C</t>
+  </si>
+  <si>
+    <t>美国联邦政府</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9D%83%E5%88%A9%E6%B3%95%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国权利法案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
+  </si>
+  <si>
+    <t>权力分立</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
+  </si>
+  <si>
+    <t>立法机构</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>美国国会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国众议院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%82%E8%AE%AE%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国参议院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%89%AF%E6%80%BB%E7%BB%9F</t>
+  </si>
+  <si>
+    <t>美国副总统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%A9%9F%E6%A7%8B%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国联邦机构列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
+  </si>
+  <si>
+    <t>美国总统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E5%8A%9E%E4%BA%8B%E6%9C%BA%E6%9E%84</t>
+  </si>
+  <si>
+    <t>美国总统办事机构</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E9%98%81</t>
+  </si>
+  <si>
+    <t>美国内阁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E8%A1%8C%E6%94%BF%E9%83%A8%E9%97%A8</t>
+  </si>
+  <si>
+    <t>美国联邦行政部门</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C%E7%8D%A8%E7%AB%8B%E6%A9%9F%E6%A7%8B</t>
+  </si>
+  <si>
+    <t>美国政府独立机构</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国联邦法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E4%B8%8A%E8%AF%89%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国联邦上诉法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E5%9C%B0%E5%8C%BA%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国联邦地区法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%B8%E6%B3%95%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国司法部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E8%B0%83%E6%9F%A5%E5%B1%80</t>
+  </si>
+  <si>
+    <t>联邦调查局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%83%85%E5%A0%B1%E9%AB%94%E7%B3%BB</t>
+  </si>
+  <si>
+    <t>美国情报体系</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%83%85%E5%A0%B1%E7%B8%BD%E7%9B%A3</t>
+  </si>
+  <si>
+    <t>国家情报总监</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%83%85%E6%8A%A5%E5%B1%80</t>
+  </si>
+  <si>
+    <t>中央情报局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2%E6%83%85%E5%A0%B1%E5%B1%80</t>
+  </si>
+  <si>
+    <t>国防情报局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%9C%B0%E7%90%86%E7%A9%BA%E9%96%93%E6%83%85%E5%A0%B1%E5%B1%80</t>
+  </si>
+  <si>
+    <t>美国国家地理空间情报局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E4%BE%A6%E5%AF%9F%E5%B1%80</t>
+  </si>
+  <si>
+    <t>美国国家侦察局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%AE%89%E5%85%A8%E5%B1%80</t>
+  </si>
+  <si>
+    <t>美国国家安全局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A9%BA%E5%86%9B</t>
+  </si>
+  <si>
+    <t>美国空军</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%99%86%E5%86%9B</t>
+  </si>
+  <si>
+    <t>美国陆军</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B%E9%99%86%E6%88%98%E9%98%9F</t>
+  </si>
+  <si>
+    <t>美国海军陆战队</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B</t>
+  </si>
+  <si>
+    <t>美国海军</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%B2%B8%E8%AD%A6%E5%8D%AB%E9%98%9F</t>
+  </si>
+  <si>
+    <t>美国海岸警卫队</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%B0%91%E8%AD%A6%E8%A1%9B%E9%9A%8A</t>
+  </si>
+  <si>
+    <t>美国国民警卫队</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>美国政治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%B8%E8%88%89</t>
+  </si>
+  <si>
+    <t>美国选举</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%80%89%E4%B8%BE%E4%BA%BA%E5%9B%A2</t>
+  </si>
+  <si>
+    <t>美国选举人团</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
+  </si>
+  <si>
+    <t>美国行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E5%85%9A</t>
+  </si>
+  <si>
+    <t>美国政党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
+  </si>
+  <si>
+    <t>民主党 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
+  </si>
+  <si>
+    <t>共和党 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
+  </si>
+  <si>
+    <t>第三党 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC51%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>美国第51州</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Political_status_of_Puerto_Rico</t>
+  </si>
+  <si>
+    <t>en-Political status of Puerto Rico</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E5%B7%9E%E8%88%87%E8%97%8D%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>红州与蓝州</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Purple_America</t>
+  </si>
+  <si>
+    <t>en-Purple America</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E5%A7%86%E5%A4%A7%E5%8F%94</t>
+  </si>
+  <si>
+    <t>山姆大叔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9C%B0%E7%90%86</t>
+  </si>
+  <si>
+    <t>美国地理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B7%B4%E6%8B%89%E5%A5%91%E4%BA%9A%E5%B1%B1%E8%84%89</t>
+  </si>
+  <si>
+    <t>阿巴拉契亚山脉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E7%A3%AF%E5%B1%B1%E8%84%88</t>
+  </si>
+  <si>
+    <t>洛矶山脉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国国家公园列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E5%8D%80</t>
+  </si>
+  <si>
+    <t>美国地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
+  </si>
+  <si>
+    <t>新英格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%9C%B0%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>中大西洋地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8D%97%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国南部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E8%A5%BF%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国中西部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%A4%A7%E5%B9%B3%E5%8E%9F</t>
+  </si>
+  <si>
+    <t>北美大平原</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8C%97%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国西北部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8D%97%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国西南部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B2%B3%E6%B5%81%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国河流列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>密西西比河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%8B%8F%E9%87%8C%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>密苏里河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BD%97%E6%8B%89%E5%A4%9A%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>科罗拉多河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD</t>
+  </si>
+  <si>
+    <t>美国州份</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%A2%86%E5%9C%9F</t>
+  </si>
+  <si>
+    <t>美国领土</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Agriculture_in_the_United_States</t>
+  </si>
+  <si>
+    <t>en-Agriculture in the United States</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%A2</t>
+  </si>
+  <si>
+    <t>美国梦</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/United_States_federal_budget</t>
+  </si>
+  <si>
+    <t>en-United States federal budget</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%84%B2%E5%82%99%E7%B3%BB%E7%B5%B1</t>
+  </si>
+  <si>
+    <t>联邦储备系统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9A%84%E5%B7%A5%E6%9C%83</t>
+  </si>
+  <si>
+    <t>美国的工会</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Social_programs_in_the_United_States</t>
+  </si>
+  <si>
+    <t>en-Social programs in the United States</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%82%B5</t>
+  </si>
+  <si>
+    <t>美国国债</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Taxation_in_the_United_States</t>
+  </si>
+  <si>
+    <t>en-Taxation in the United States</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%A4%E9%80%9A</t>
+  </si>
+  <si>
+    <t>美国交通</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%BA%E5%9C%BA%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国机场列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%81%93</t>
+  </si>
+  <si>
+    <t>美国国道</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF%E7%B3%BB%E7%B5%B1</t>
+  </si>
+  <si>
+    <t>州际公路系统</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Unemployment_in_the_United_States</t>
+  </si>
+  <si>
+    <t>en-Unemployment in the United States</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
+  </si>
+  <si>
+    <t>美元</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E5%B0%94%E8%A1%97</t>
+  </si>
+  <si>
+    <t>华尔街</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83</t>
+  </si>
+  <si>
+    <t>美国社会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8A%AF%E7%BD%AA</t>
+  </si>
+  <si>
+    <t>美国犯罪</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>美国教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8D%AB%E7%94%9F%E4%BF%9D%E5%81%A5</t>
+  </si>
+  <si>
+    <t>美国卫生保健</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9B%91%E7%A6%81%E5%88%B6%E5%BA%A6</t>
+  </si>
+  <si>
+    <t>美国监禁制度</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%AF%AD%E8%A8%80</t>
+  </si>
+  <si>
+    <t>美国语言</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%8B%B1%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>美国英语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>美国的西班牙语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AA%92%E4%BD%93</t>
+  </si>
+  <si>
+    <t>美国媒体</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>美国人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%8A%82%E6%97%A5</t>
+  </si>
+  <si>
+    <t>美国节日</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%97%E6%95%99</t>
+  </si>
+  <si>
+    <t>美国宗教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83%E9%9A%8E%E5%B1%A4</t>
+  </si>
+  <si>
+    <t>美国社会阶层</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%A2%A6</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BD%93%E8%82%B2</t>
+  </si>
+  <si>
+    <t>美国体育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8BLGBT%E6%AC%8A%E7%9B%8A</t>
+  </si>
+  <si>
+    <t>美国LGBT权益</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
+  </si>
+  <si>
+    <t>美国同性婚姻</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%B6%E5%BA%AD%E7%BB%93%E6%9E%84</t>
+  </si>
+  <si>
+    <t>美国家庭结构</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%96%87%E5%8C%96</t>
+  </si>
+  <si>
+    <t>美国文化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%96%87%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>美国文学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%8E%B1%E5%A7%86%E6%96%87%E8%89%BA%E5%A4%8D%E5%85%B4</t>
+  </si>
+  <si>
+    <t>哈莱姆文艺复兴</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E9%AA%8C%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>超验主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9E%AE%E6%8E%89%E7%9A%84%E4%B8%80%E4%BB%A3</t>
+  </si>
+  <si>
+    <t>垮掉的一代</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%BB%BA%E7%AD%91</t>
+  </si>
+  <si>
+    <t>美国建筑</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A3%B2%E9%A3%9F%E6%96%87%E5%8C%96</t>
+  </si>
+  <si>
+    <t>美国饮食文化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E6%97%97</t>
+  </si>
+  <si>
+    <t>美国国旗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%9F%B3%E4%B9%90</t>
+  </si>
+  <si>
+    <t>美国音乐</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B0%91%E9%97%B4%E9%9F%B3%E4%B9%90</t>
+  </si>
+  <si>
+    <t>美国民间音乐</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%81%E8%A1%8C%E9%9F%B3%E4%B9%90</t>
+  </si>
+  <si>
+    <t>美国流行音乐</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B5%E5%A3%AB%E4%B9%90</t>
+  </si>
+  <si>
+    <t>爵士乐</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9B%BB%E8%A6%96</t>
+  </si>
+  <si>
+    <t>美国电视</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%94%B5%E5%BD%B1</t>
+  </si>
+  <si>
+    <t>美国电影</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%BD%E8%8E%B1%E5%9D%9E</t>
+  </si>
+  <si>
+    <t>好莱坞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8A%BD%E8%B1%A1%E8%A1%A8%E7%8F%BE%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>抽象表现主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A4%BE%E4%BC%9A%E9%97%AE%E9%A2%98</t>
+  </si>
+  <si>
+    <t>美国社会问题</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B9%B3%E6%9D%83%E8%A1%8C%E5%8A%A8</t>
+  </si>
+  <si>
+    <t>美国平权行动</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BE%8B%E5%A4%96%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>美国例外主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E7%BE%8E%E6%83%85%E7%BB%AA</t>
+  </si>
+  <si>
+    <t>反美情绪</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%AD%BB%E5%88%91%E5%88%B6%E5%BA%A6</t>
+  </si>
+  <si>
+    <t>美国死刑制度</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%94%AF%E6%94%BF%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>美国枪支政治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%9E%9D%E6%9A%B4%E5%8A%9B%E5%95%8F%E9%A1%8C</t>
+  </si>
+  <si>
+    <t>美国枪枝暴力问题</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%86%AB%E7%99%82%E6%94%B9%E9%9D%A9</t>
+  </si>
+  <si>
+    <t>美国医疗改革</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%9D%83</t>
+  </si>
+  <si>
+    <t>美国人权</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E9%82%8A%E7%95%8C</t>
+  </si>
+  <si>
+    <t>美墨边界</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E8%82%A5%E8%83%96%E9%97%AE%E9%A2%98</t>
+  </si>
+  <si>
+    <t>美国的肥胖问题</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%8D%E6%97%8F%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>美国种族主义</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B3%95%E5%BE%8B</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95</t>
-  </si>
-  <si>
-    <t>美国宪法</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_美国法律</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国最高法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8B%AC%E7%AB%8B%E6%88%98%E4%BA%89</t>
-  </si>
-  <si>
-    <t>美国独立战争</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>英国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%80%9A%E6%B3%95</t>
-  </si>
-  <si>
-    <t>普通法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%80%E9%AB%98%E6%9D%83%E5%8A%9B%E6%9D%A1%E6%AC%BE</t>
-  </si>
-  <si>
-    <t>最高权力条款</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B</t>
-  </si>
-  <si>
-    <t>法律</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E5%88%B6</t>
-  </si>
-  <si>
-    <t>联邦制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%9E_(%E7%BE%8E%E5%9B%BD)</t>
-  </si>
-  <si>
-    <t>州 (美国)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E6%B3%95</t>
-  </si>
-  <si>
-    <t>行政法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%88%90%E6%96%87%E6%B3%95</t>
-  </si>
-  <si>
-    <t>成文法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A1%88%E4%BE%8B%E6%B3%95</t>
-  </si>
-  <si>
-    <t>案例法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%81%95%E6%86%B2</t>
-  </si>
-  <si>
-    <t>違憲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%81%B5%E5%BE%AA%E5%85%88%E4%BE%8B%E5%8E%9F%E5%88%99</t>
-  </si>
-  <si>
-    <t>遵循先例原则</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%81%94%E9%82%A6%E5%9B%BD%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>英联邦国家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%81%B5%E5%BE%AA%E5%85%88%E4%BE%8B</t>
-  </si>
-  <si>
-    <t>遵循先例</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E5%AE%81%E5%8B%8B%E7%88%B5</t>
-  </si>
-  <si>
-    <t>丹宁勋爵</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2%E5%A4%A7%E6%B3%95%E5%AE%98</t>
-  </si>
-  <si>
-    <t>美国最高法院大法官</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E4%B8%9C%E5%AE%81%C2%B7%E6%96%AF%E5%8D%A1%E5%88%A9%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>安东宁·斯卡利亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%A1%E7%BA%A6</t>
-  </si>
-  <si>
-    <t>条约</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%9D%B1%E5%B0%BC%C2%B7%E7%94%98%E8%BF%BA%E8%BF%AA</t>
-  </si>
-  <si>
-    <t>安東尼·甘迺迪</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E8%92%82%E8%8A%AC%C2%B7%E5%B8%83%E9%9B%B7%E8%80%B6</t>
-  </si>
-  <si>
-    <t>史蒂芬·布雷耶</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B4%B8%E6%98%93</t>
-  </si>
-  <si>
-    <t>贸易</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B3%95%E5%85%B8</t>
-  </si>
-  <si>
-    <t>美国法典</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E6%A9%9F%E9%97%9C</t>
-  </si>
-  <si>
-    <t>行政機關</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E6%B3%95%E8%A7%84</t>
-  </si>
-  <si>
-    <t>行政法规</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%85%AC%E5%A0%B1</t>
-  </si>
-  <si>
-    <t>聯邦公報</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>加利福尼亚州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%91%E6%B3%95</t>
-  </si>
-  <si>
-    <t>刑法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>美国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%9D%83</t>
-  </si>
-  <si>
-    <t>主权</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E5%AE%AA%E6%B3%95</t>
-  </si>
-  <si>
-    <t>州宪法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%E5%AE%89%E9%82%A3%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>路易斯安那州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>法国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%BF%E7%A0%B4%E4%BB%91%E6%B3%95%E5%85%B8</t>
-  </si>
-  <si>
-    <t>拿破仑法典</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%85%B8</t>
-  </si>
-  <si>
-    <t>法典</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%99%86%E6%B3%95%E7%B3%BB</t>
-  </si>
-  <si>
-    <t>大陆法系</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>纽约州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>加利福尼亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%90%A8%E6%96%AF</t>
-  </si>
-  <si>
-    <t>德克萨斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%A9%9F%E9%97%9C</t>
-  </si>
-  <si>
-    <t>立法機關</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>英国最高法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E9%99%A2</t>
-  </si>
-  <si>
-    <t>上院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%85%92%E5%90%8E%E9%A9%BE%E9%A9%B6</t>
-  </si>
-  <si>
-    <t>酒后驾驶</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%92%E5%93%81</t>
-  </si>
-  <si>
-    <t>毒品</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B3%95%E5%BE%8B%E5%8D%8F%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>美国法律协会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B5%B1%E4%B8%80%E5%95%86%E6%B3%95%E5%85%B8</t>
-  </si>
-  <si>
-    <t>統一商法典</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E9%87%8D%E8%BF%B0</t>
-  </si>
-  <si>
-    <t>法律重述</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%83%A8%E9%96%80</t>
-  </si>
-  <si>
-    <t>政府部門</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8E%BF</t>
-  </si>
-  <si>
-    <t>县</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E5%B8%82</t>
-  </si>
-  <si>
-    <t>城市</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>特区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A4%9A%E9%BB%8E%E5%90%84</t>
-  </si>
-  <si>
-    <t>波多黎各</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%99%B8%E6%B3%95</t>
-  </si>
-  <si>
-    <t>大陸法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B2%E5%A9%9A</t>
-  </si>
-  <si>
-    <t>已婚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A</t>
-  </si>
-  <si>
-    <t>科羅拉多</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
-  </si>
-  <si>
-    <t>新墨西哥</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%80%80%E4%BF%84%E6%98%8E</t>
-  </si>
-  <si>
-    <t>怀俄明</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E9%A2%86%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>密歇根领地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E6%96%87%E5%BA%93</t>
-  </si>
-  <si>
-    <t>维基文库</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%B3%95%E7%B3%BB</t>
-  </si>
-  <si>
-    <t>世界法系</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2%E6%A1%88%E4%BE%8B%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国最高法院案例列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9B%BD%E7%B4%A2%E5%BC%95</t>
-  </si>
-  <si>
-    <t>Template talk-美国索引</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%86%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>美国历史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%86%E5%8F%B2%E5%B9%B4%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国历史年表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E5%93%A5%E5%80%AB%E5%B8%83%E6%99%82%E6%9C%9F</t>
-  </si>
-  <si>
-    <t>前哥倫布時期</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%89%E6%AE%96%E6%B0%91%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>十三殖民地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8B%AC%E7%AB%8B%E5%AE%A3%E8%A8%80</t>
-  </si>
-  <si>
-    <t>美国独立宣言</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%9D%A9%E5%91%BD</t>
-  </si>
-  <si>
-    <t>美国革命</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A0%98%E5%9C%9F%E8%AE%8A%E9%81%B7</t>
-  </si>
-  <si>
-    <t>美國領土變遷</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E6%88%98</t>
-  </si>
-  <si>
-    <t>美国内战</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%87%8D%E5%BB%BA%E6%97%B6%E6%9C%9F</t>
-  </si>
-  <si>
-    <t>美国重建时期</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%90%A7%E6%9D%A1</t>
-  </si>
-  <si>
-    <t>大萧条</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%98</t>
-  </si>
-  <si>
-    <t>冷战</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E6%88%98%E4%BA%89</t>
-  </si>
-  <si>
-    <t>朝鲜战争</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%A3%94%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%B0%91%E6%9D%83%E8%BF%90%E5%8A%A8</t>
-  </si>
-  <si>
-    <t>非裔美国人民权运动</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E6%88%98%E4%BA%89</t>
-  </si>
-  <si>
-    <t>越南战争</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E7%81%A3%E6%88%B0%E7%88%AD</t>
-  </si>
-  <si>
-    <t>波斯灣戰爭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%81%90%E6%88%98%E4%BA%89</t>
-  </si>
-  <si>
-    <t>反恐战争</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%B5%B7%E5%98%AF</t>
-  </si>
-  <si>
-    <t>金融海嘯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%8F%A3</t>
-  </si>
-  <si>
-    <t>美国人口</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%BB%8F%E6%B5%8E</t>
-  </si>
-  <si>
-    <t>美国经济</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%80%BA%E5%8A%A1%E4%B8%8A%E9%99%90%E5%8E%86%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>美国债务上限历史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%9B%E4%BA%8B</t>
-  </si>
-  <si>
-    <t>美国军事</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%83%B5%E6%94%BF%E7%BD%B2</t>
-  </si>
-  <si>
-    <t>美國郵政署</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%91%E5%AD%A6%E6%8A%80%E6%9C%AF</t>
-  </si>
-  <si>
-    <t>美国科学技术</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%94%BF%E5%BA%9C</t>
-  </si>
-  <si>
-    <t>美国联邦政府</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9D%83%E5%88%A9%E6%B3%95%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美国权利法案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
-  </si>
-  <si>
-    <t>權力分立</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
-  </si>
-  <si>
-    <t>立法机构</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>美国国会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国众议院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%82%E8%AE%AE%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国参议院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%89%AF%E6%80%BB%E7%BB%9F</t>
-  </si>
-  <si>
-    <t>美国副总统</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%A9%9F%E6%A7%8B%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美國聯邦機構列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
-  </si>
-  <si>
-    <t>美国总统</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E5%8A%9E%E4%BA%8B%E6%9C%BA%E6%9E%84</t>
-  </si>
-  <si>
-    <t>美国总统办事机构</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E9%98%81</t>
-  </si>
-  <si>
-    <t>美国内阁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E8%A1%8C%E6%94%BF%E9%83%A8%E9%97%A8</t>
-  </si>
-  <si>
-    <t>美国联邦行政部门</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C%E7%8D%A8%E7%AB%8B%E6%A9%9F%E6%A7%8B</t>
-  </si>
-  <si>
-    <t>美國政府獨立機構</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国联邦法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E4%B8%8A%E8%AF%89%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国联邦上诉法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E5%9C%B0%E5%8C%BA%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国联邦地区法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%B8%E6%B3%95%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美国司法部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E8%B0%83%E6%9F%A5%E5%B1%80</t>
-  </si>
-  <si>
-    <t>联邦调查局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%83%85%E5%A0%B1%E9%AB%94%E7%B3%BB</t>
-  </si>
-  <si>
-    <t>美國情報體系</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%83%85%E5%A0%B1%E7%B8%BD%E7%9B%A3</t>
-  </si>
-  <si>
-    <t>國家情報總監</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%83%85%E6%8A%A5%E5%B1%80</t>
-  </si>
-  <si>
-    <t>中央情报局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2%E6%83%85%E5%A0%B1%E5%B1%80</t>
-  </si>
-  <si>
-    <t>國防情報局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%9C%B0%E7%90%86%E7%A9%BA%E9%96%93%E6%83%85%E5%A0%B1%E5%B1%80</t>
-  </si>
-  <si>
-    <t>美國國家地理空間情報局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E4%BE%A6%E5%AF%9F%E5%B1%80</t>
-  </si>
-  <si>
-    <t>美国国家侦察局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%AE%89%E5%85%A8%E5%B1%80</t>
-  </si>
-  <si>
-    <t>美国国家安全局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A9%BA%E5%86%9B</t>
-  </si>
-  <si>
-    <t>美国空军</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%99%86%E5%86%9B</t>
-  </si>
-  <si>
-    <t>美国陆军</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B%E9%99%86%E6%88%98%E9%98%9F</t>
-  </si>
-  <si>
-    <t>美国海军陆战队</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B</t>
-  </si>
-  <si>
-    <t>美国海军</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%B2%B8%E8%AD%A6%E5%8D%AB%E9%98%9F</t>
-  </si>
-  <si>
-    <t>美国海岸警卫队</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%B0%91%E8%AD%A6%E8%A1%9B%E9%9A%8A</t>
-  </si>
-  <si>
-    <t>美國國民警衛隊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>美国政治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%B8%E8%88%89</t>
-  </si>
-  <si>
-    <t>美國選舉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%80%89%E4%B8%BE%E4%BA%BA%E5%9B%A2</t>
-  </si>
-  <si>
-    <t>美国选举人团</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
-  </si>
-  <si>
-    <t>美国行政区划</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E5%85%9A</t>
-  </si>
-  <si>
-    <t>美国政党</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
-  </si>
-  <si>
-    <t>民主党 (美国)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
-  </si>
-  <si>
-    <t>共和党 (美国)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
-  </si>
-  <si>
-    <t>第三党 (美国)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC51%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>美國第51州</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Political_status_of_Puerto_Rico</t>
-  </si>
-  <si>
-    <t>en-Political status of Puerto Rico</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E5%B7%9E%E8%88%87%E8%97%8D%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>紅州與藍州</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Purple_America</t>
-  </si>
-  <si>
-    <t>en-Purple America</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E5%A7%86%E5%A4%A7%E5%8F%94</t>
-  </si>
-  <si>
-    <t>山姆大叔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9C%B0%E7%90%86</t>
-  </si>
-  <si>
-    <t>美国地理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B7%B4%E6%8B%89%E5%A5%91%E4%BA%9A%E5%B1%B1%E8%84%89</t>
-  </si>
-  <si>
-    <t>阿巴拉契亚山脉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E7%A3%AF%E5%B1%B1%E8%84%88</t>
-  </si>
-  <si>
-    <t>洛磯山脈</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国国家公园列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E5%8D%80</t>
-  </si>
-  <si>
-    <t>美國地區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
-  </si>
-  <si>
-    <t>新英格蘭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%9C%B0%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>中大西洋地区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8D%97%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國南部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E8%A5%BF%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國中西部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%A4%A7%E5%B9%B3%E5%8E%9F</t>
-  </si>
-  <si>
-    <t>北美大平原</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8C%97%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國西北部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8D%97%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國西南部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B2%B3%E6%B5%81%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国河流列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>密西西比河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%8B%8F%E9%87%8C%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>密苏里河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BD%97%E6%8B%89%E5%A4%9A%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>科罗拉多河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD</t>
-  </si>
-  <si>
-    <t>美国州份</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%A2%86%E5%9C%9F</t>
-  </si>
-  <si>
-    <t>美国领土</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Agriculture_in_the_United_States</t>
-  </si>
-  <si>
-    <t>en-Agriculture in the United States</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%A2</t>
-  </si>
-  <si>
-    <t>美國夢</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/United_States_federal_budget</t>
-  </si>
-  <si>
-    <t>en-United States federal budget</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%84%B2%E5%82%99%E7%B3%BB%E7%B5%B1</t>
-  </si>
-  <si>
-    <t>聯邦儲備系統</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9A%84%E5%B7%A5%E6%9C%83</t>
-  </si>
-  <si>
-    <t>美國的工會</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Social_programs_in_the_United_States</t>
-  </si>
-  <si>
-    <t>en-Social programs in the United States</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%82%B5</t>
-  </si>
-  <si>
-    <t>美國國債</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Taxation_in_the_United_States</t>
-  </si>
-  <si>
-    <t>en-Taxation in the United States</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%A4%E9%80%9A</t>
-  </si>
-  <si>
-    <t>美國交通</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%BA%E5%9C%BA%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国机场列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%81%93</t>
-  </si>
-  <si>
-    <t>美國國道</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF%E7%B3%BB%E7%B5%B1</t>
-  </si>
-  <si>
-    <t>州際公路系統</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Unemployment_in_the_United_States</t>
-  </si>
-  <si>
-    <t>en-Unemployment in the United States</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
-  </si>
-  <si>
-    <t>美元</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E5%B0%94%E8%A1%97</t>
-  </si>
-  <si>
-    <t>华尔街</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83</t>
-  </si>
-  <si>
-    <t>美國社會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8A%AF%E7%BD%AA</t>
-  </si>
-  <si>
-    <t>美国犯罪</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>美国教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8D%AB%E7%94%9F%E4%BF%9D%E5%81%A5</t>
-  </si>
-  <si>
-    <t>美国卫生保健</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9B%91%E7%A6%81%E5%88%B6%E5%BA%A6</t>
-  </si>
-  <si>
-    <t>美国监禁制度</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%AF%AD%E8%A8%80</t>
-  </si>
-  <si>
-    <t>美国语言</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%8B%B1%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>美国英语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>美国的西班牙语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AA%92%E4%BD%93</t>
-  </si>
-  <si>
-    <t>美国媒体</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>美国人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%8A%82%E6%97%A5</t>
-  </si>
-  <si>
-    <t>美国节日</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%97%E6%95%99</t>
-  </si>
-  <si>
-    <t>美国宗教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83%E9%9A%8E%E5%B1%A4</t>
-  </si>
-  <si>
-    <t>美國社會階層</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%A2%A6</t>
-  </si>
-  <si>
-    <t>美国梦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BD%93%E8%82%B2</t>
-  </si>
-  <si>
-    <t>美国体育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8BLGBT%E6%AC%8A%E7%9B%8A</t>
-  </si>
-  <si>
-    <t>美國LGBT權益</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
-  </si>
-  <si>
-    <t>美国同性婚姻</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%B6%E5%BA%AD%E7%BB%93%E6%9E%84</t>
-  </si>
-  <si>
-    <t>美国家庭结构</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%96%87%E5%8C%96</t>
-  </si>
-  <si>
-    <t>美国文化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%96%87%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>美国文学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%8E%B1%E5%A7%86%E6%96%87%E8%89%BA%E5%A4%8D%E5%85%B4</t>
-  </si>
-  <si>
-    <t>哈莱姆文艺复兴</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E9%AA%8C%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>超验主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9E%AE%E6%8E%89%E7%9A%84%E4%B8%80%E4%BB%A3</t>
-  </si>
-  <si>
-    <t>垮掉的一代</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%BB%BA%E7%AD%91</t>
-  </si>
-  <si>
-    <t>美国建筑</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A3%B2%E9%A3%9F%E6%96%87%E5%8C%96</t>
-  </si>
-  <si>
-    <t>美國飲食文化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E6%97%97</t>
-  </si>
-  <si>
-    <t>美国国旗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%9F%B3%E4%B9%90</t>
-  </si>
-  <si>
-    <t>美国音乐</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B0%91%E9%97%B4%E9%9F%B3%E4%B9%90</t>
-  </si>
-  <si>
-    <t>美国民间音乐</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%81%E8%A1%8C%E9%9F%B3%E4%B9%90</t>
-  </si>
-  <si>
-    <t>美国流行音乐</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B5%E5%A3%AB%E4%B9%90</t>
-  </si>
-  <si>
-    <t>爵士乐</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9B%BB%E8%A6%96</t>
-  </si>
-  <si>
-    <t>美國電視</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%94%B5%E5%BD%B1</t>
-  </si>
-  <si>
-    <t>美国电影</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%BD%E8%8E%B1%E5%9D%9E</t>
-  </si>
-  <si>
-    <t>好莱坞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8A%BD%E8%B1%A1%E8%A1%A8%E7%8F%BE%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>抽象表現主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A4%BE%E4%BC%9A%E9%97%AE%E9%A2%98</t>
-  </si>
-  <si>
-    <t>美国社会问题</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B9%B3%E6%9D%83%E8%A1%8C%E5%8A%A8</t>
-  </si>
-  <si>
-    <t>美国平权行动</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BE%8B%E5%A4%96%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>美国例外主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E7%BE%8E%E6%83%85%E7%BB%AA</t>
-  </si>
-  <si>
-    <t>反美情绪</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%AD%BB%E5%88%91%E5%88%B6%E5%BA%A6</t>
-  </si>
-  <si>
-    <t>美国死刑制度</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%94%AF%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>美國槍支政治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%9E%9D%E6%9A%B4%E5%8A%9B%E5%95%8F%E9%A1%8C</t>
-  </si>
-  <si>
-    <t>美國槍枝暴力問題</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%86%AB%E7%99%82%E6%94%B9%E9%9D%A9</t>
-  </si>
-  <si>
-    <t>美國醫療改革</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%9D%83</t>
-  </si>
-  <si>
-    <t>美国人权</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E9%82%8A%E7%95%8C</t>
-  </si>
-  <si>
-    <t>美墨邊界</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E8%82%A5%E8%83%96%E9%97%AE%E9%A2%98</t>
-  </si>
-  <si>
-    <t>美国的肥胖问题</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%8D%E6%97%8F%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>美国种族主义</t>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -1632,7 +1638,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I213"/>
+  <dimension ref="A1:I215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1860,7 +1866,7 @@
         <v>16</v>
       </c>
       <c r="G8" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H8" t="s">
         <v>4</v>
@@ -6874,7 +6880,7 @@
         <v>357</v>
       </c>
       <c r="F181" t="s">
-        <v>358</v>
+        <v>304</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6900,10 +6906,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>358</v>
+      </c>
+      <c r="F182" t="s">
         <v>359</v>
-      </c>
-      <c r="F182" t="s">
-        <v>360</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6929,10 +6935,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>360</v>
+      </c>
+      <c r="F183" t="s">
         <v>361</v>
-      </c>
-      <c r="F183" t="s">
-        <v>362</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6958,10 +6964,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>362</v>
+      </c>
+      <c r="F184" t="s">
         <v>363</v>
-      </c>
-      <c r="F184" t="s">
-        <v>364</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -6987,10 +6993,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>364</v>
+      </c>
+      <c r="F185" t="s">
         <v>365</v>
-      </c>
-      <c r="F185" t="s">
-        <v>366</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7016,10 +7022,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>366</v>
+      </c>
+      <c r="F186" t="s">
         <v>367</v>
-      </c>
-      <c r="F186" t="s">
-        <v>368</v>
       </c>
       <c r="G186" t="n">
         <v>3</v>
@@ -7045,10 +7051,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>368</v>
+      </c>
+      <c r="F187" t="s">
         <v>369</v>
-      </c>
-      <c r="F187" t="s">
-        <v>370</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7074,10 +7080,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>370</v>
+      </c>
+      <c r="F188" t="s">
         <v>371</v>
-      </c>
-      <c r="F188" t="s">
-        <v>372</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7103,10 +7109,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>372</v>
+      </c>
+      <c r="F189" t="s">
         <v>373</v>
-      </c>
-      <c r="F189" t="s">
-        <v>374</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7132,10 +7138,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>374</v>
+      </c>
+      <c r="F190" t="s">
         <v>375</v>
-      </c>
-      <c r="F190" t="s">
-        <v>376</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7161,10 +7167,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>376</v>
+      </c>
+      <c r="F191" t="s">
         <v>377</v>
-      </c>
-      <c r="F191" t="s">
-        <v>378</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7190,10 +7196,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>378</v>
+      </c>
+      <c r="F192" t="s">
         <v>379</v>
-      </c>
-      <c r="F192" t="s">
-        <v>380</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7219,10 +7225,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>380</v>
+      </c>
+      <c r="F193" t="s">
         <v>381</v>
-      </c>
-      <c r="F193" t="s">
-        <v>382</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7248,10 +7254,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>382</v>
+      </c>
+      <c r="F194" t="s">
         <v>383</v>
-      </c>
-      <c r="F194" t="s">
-        <v>384</v>
       </c>
       <c r="G194" t="n">
         <v>4</v>
@@ -7277,10 +7283,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>384</v>
+      </c>
+      <c r="F195" t="s">
         <v>385</v>
-      </c>
-      <c r="F195" t="s">
-        <v>386</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7306,10 +7312,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>386</v>
+      </c>
+      <c r="F196" t="s">
         <v>387</v>
-      </c>
-      <c r="F196" t="s">
-        <v>388</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7335,10 +7341,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>388</v>
+      </c>
+      <c r="F197" t="s">
         <v>389</v>
-      </c>
-      <c r="F197" t="s">
-        <v>390</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7364,10 +7370,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>390</v>
+      </c>
+      <c r="F198" t="s">
         <v>391</v>
-      </c>
-      <c r="F198" t="s">
-        <v>392</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7393,10 +7399,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>392</v>
+      </c>
+      <c r="F199" t="s">
         <v>393</v>
-      </c>
-      <c r="F199" t="s">
-        <v>394</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7422,10 +7428,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
+        <v>394</v>
+      </c>
+      <c r="F200" t="s">
         <v>395</v>
-      </c>
-      <c r="F200" t="s">
-        <v>396</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7451,10 +7457,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>396</v>
+      </c>
+      <c r="F201" t="s">
         <v>397</v>
-      </c>
-      <c r="F201" t="s">
-        <v>398</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7480,10 +7486,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
+        <v>398</v>
+      </c>
+      <c r="F202" t="s">
         <v>399</v>
-      </c>
-      <c r="F202" t="s">
-        <v>400</v>
       </c>
       <c r="G202" t="n">
         <v>4</v>
@@ -7509,10 +7515,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
+        <v>400</v>
+      </c>
+      <c r="F203" t="s">
         <v>401</v>
-      </c>
-      <c r="F203" t="s">
-        <v>402</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7538,10 +7544,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
+        <v>402</v>
+      </c>
+      <c r="F204" t="s">
         <v>403</v>
-      </c>
-      <c r="F204" t="s">
-        <v>404</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7567,10 +7573,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
+        <v>404</v>
+      </c>
+      <c r="F205" t="s">
         <v>405</v>
-      </c>
-      <c r="F205" t="s">
-        <v>406</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7596,10 +7602,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
+        <v>406</v>
+      </c>
+      <c r="F206" t="s">
         <v>407</v>
-      </c>
-      <c r="F206" t="s">
-        <v>408</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7625,10 +7631,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
+        <v>408</v>
+      </c>
+      <c r="F207" t="s">
         <v>409</v>
-      </c>
-      <c r="F207" t="s">
-        <v>410</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7654,10 +7660,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
+        <v>410</v>
+      </c>
+      <c r="F208" t="s">
         <v>411</v>
-      </c>
-      <c r="F208" t="s">
-        <v>412</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7683,10 +7689,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
+        <v>412</v>
+      </c>
+      <c r="F209" t="s">
         <v>413</v>
-      </c>
-      <c r="F209" t="s">
-        <v>414</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7712,10 +7718,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
+        <v>414</v>
+      </c>
+      <c r="F210" t="s">
         <v>415</v>
-      </c>
-      <c r="F210" t="s">
-        <v>416</v>
       </c>
       <c r="G210" t="n">
         <v>2</v>
@@ -7741,10 +7747,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
+        <v>416</v>
+      </c>
+      <c r="F211" t="s">
         <v>417</v>
-      </c>
-      <c r="F211" t="s">
-        <v>418</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -7770,10 +7776,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
+        <v>418</v>
+      </c>
+      <c r="F212" t="s">
         <v>419</v>
-      </c>
-      <c r="F212" t="s">
-        <v>420</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -7799,18 +7805,76 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
+        <v>420</v>
+      </c>
+      <c r="F213" t="s">
         <v>421</v>
       </c>
-      <c r="F213" t="s">
+      <c r="G213" t="n">
+        <v>1</v>
+      </c>
+      <c r="H213" t="s">
+        <v>4</v>
+      </c>
+      <c r="I213" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="s">
+        <v>0</v>
+      </c>
+      <c r="C214" t="s">
+        <v>1</v>
+      </c>
+      <c r="D214" t="n">
+        <v>213</v>
+      </c>
+      <c r="E214" t="s">
         <v>422</v>
       </c>
-      <c r="G213" t="n">
-        <v>1</v>
-      </c>
-      <c r="H213" t="s">
-        <v>4</v>
-      </c>
-      <c r="I213" t="n">
+      <c r="F214" t="s">
+        <v>423</v>
+      </c>
+      <c r="G214" t="n">
+        <v>2</v>
+      </c>
+      <c r="H214" t="s">
+        <v>4</v>
+      </c>
+      <c r="I214" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="s">
+        <v>0</v>
+      </c>
+      <c r="C215" t="s">
+        <v>1</v>
+      </c>
+      <c r="D215" t="n">
+        <v>214</v>
+      </c>
+      <c r="E215" t="s">
+        <v>422</v>
+      </c>
+      <c r="F215" t="s">
+        <v>424</v>
+      </c>
+      <c r="G215" t="n">
+        <v>1</v>
+      </c>
+      <c r="H215" t="s">
+        <v>4</v>
+      </c>
+      <c r="I215" t="n">
         <v>3</v>
       </c>
     </row>
